--- a/sondaze.xlsx
+++ b/sondaze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubas\PycharmProjects\STUDIA\wybory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96BA702-A202-48ED-BDA8-8756FEC95106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475F91D9-13EC-4487-BF16-1DC63D472837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Ośrodek</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>CBOS</t>
+  </si>
+  <si>
+    <t>Pollster</t>
   </si>
 </sst>
 </file>
@@ -208,16 +211,6 @@
   <dxfs count="16">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -239,6 +232,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -278,8 +281,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C758BEB-7060-4A34-8F7B-3E3B5C5551B7}" name="Table1" displayName="Table1" ref="A1:S17" totalsRowShown="0">
-  <autoFilter ref="A1:S17" xr:uid="{9C758BEB-7060-4A34-8F7B-3E3B5C5551B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C758BEB-7060-4A34-8F7B-3E3B5C5551B7}" name="Table1" displayName="Table1" ref="A1:S21" totalsRowShown="0">
+  <autoFilter ref="A1:S21" xr:uid="{9C758BEB-7060-4A34-8F7B-3E3B5C5551B7}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{94FCF0BF-526C-48A2-AD6F-2258E1470F22}" name="Ośrodek"/>
     <tableColumn id="2" xr3:uid="{3207E29E-CAB4-44AC-931B-2E2AE9BDE8E3}" name="data"/>
@@ -305,17 +308,17 @@
     <tableColumn id="12" xr3:uid="{55A08D78-83B0-4B81-9968-F5E0A4B983B5}" name="INNI" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(Table1[[#This Row],[INNI_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{54405D3D-EC4A-4D58-A1DA-8DAC8DF46EC7}" name="NIEZDECYDOWANI" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{54405D3D-EC4A-4D58-A1DA-8DAC8DF46EC7}" name="NIEZDECYDOWANI" dataDxfId="8">
       <calculatedColumnFormula>IFERROR(Table1[[#This Row],[NIEZDECYDOWANI_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CFBCE346-F4D7-4860-B397-485C612CE5C4}" name="PIS_SONDAZ" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{3231FDD1-8481-4B7E-A6F2-4E4B333D0F89}" name="KO_SONDAZ" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{6EA56FA6-DDA0-41D2-ACA9-33E0915F19F5}" name="TD_SONDAZ" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{3CE859FF-9D47-4651-829A-80C011085BD5}" name="KONF_SONDAZ" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{91EA1E5C-4ADF-4A09-9B80-4C39428444F5}" name="LEW_SONDAZ" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{34207656-0375-494F-8A3A-7F205CE90085}" name="BS_SONDAZ" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{B9B6DD98-169B-4DD2-9518-E438C4397362}" name="INNI_SONDAZ" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{029E1F30-FCFF-4BCA-80AE-9882468B8191}" name="NIEZDECYDOWANI_SONDAZ" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{CFBCE346-F4D7-4860-B397-485C612CE5C4}" name="PIS_SONDAZ" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{3231FDD1-8481-4B7E-A6F2-4E4B333D0F89}" name="KO_SONDAZ" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{6EA56FA6-DDA0-41D2-ACA9-33E0915F19F5}" name="TD_SONDAZ" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{3CE859FF-9D47-4651-829A-80C011085BD5}" name="KONF_SONDAZ" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{91EA1E5C-4ADF-4A09-9B80-4C39428444F5}" name="LEW_SONDAZ" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{34207656-0375-494F-8A3A-7F205CE90085}" name="BS_SONDAZ" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{B9B6DD98-169B-4DD2-9518-E438C4397362}" name="INNI_SONDAZ" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{029E1F30-FCFF-4BCA-80AE-9882468B8191}" name="NIEZDECYDOWANI_SONDAZ" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1729,6 +1732,274 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45191</v>
+      </c>
+      <c r="C18">
+        <v>1015</v>
+      </c>
+      <c r="D18" s="2">
+        <f>IFERROR(Table1[[#This Row],[PIS_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>0.33418181818181819</v>
+      </c>
+      <c r="E18" s="2">
+        <f>IFERROR(Table1[[#This Row],[KO_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>0.27672727272727277</v>
+      </c>
+      <c r="F18" s="2">
+        <f>IFERROR(Table1[[#This Row],[TD_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>8.9181818181818195E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <f>IFERROR(Table1[[#This Row],[KONF_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>7.8818181818181829E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <f>IFERROR(Table1[[#This Row],[LEW_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>8.8363636363636366E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <f>IFERROR(Table1[[#This Row],[BS_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>1.1545454545454546E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <f>IFERROR(Table1[[#This Row],[INNI_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>3.0272727272727281E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <f>IFERROR(Table1[[#This Row],[NIEZDECYDOWANI_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>9.0909090909090925E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.36759999999999998</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.3044</v>
+      </c>
+      <c r="N18" s="2">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="P18" s="2">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C19">
+        <v>1054</v>
+      </c>
+      <c r="D19" s="2">
+        <f>IFERROR(Table1[[#This Row],[PIS_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>0.33909090909090905</v>
+      </c>
+      <c r="E19" s="2">
+        <f>IFERROR(Table1[[#This Row],[KO_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>0.27090909090909088</v>
+      </c>
+      <c r="F19" s="2">
+        <f>IFERROR(Table1[[#This Row],[TD_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>0.09</v>
+      </c>
+      <c r="G19" s="2">
+        <f>IFERROR(Table1[[#This Row],[KONF_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>9.636363636363636E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <f>IFERROR(Table1[[#This Row],[LEW_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>7.7272727272727271E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <f>IFERROR(Table1[[#This Row],[BS_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>3.3636363636363631E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <f>IFERROR(Table1[[#This Row],[INNI_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>1.8181818181818182E-3</v>
+      </c>
+      <c r="K19" s="2">
+        <f>IFERROR(Table1[[#This Row],[NIEZDECYDOWANI_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.373</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="N19" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.106</v>
+      </c>
+      <c r="P19" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45193</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="2">
+        <f>IFERROR(Table1[[#This Row],[PIS_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>0.33800000000000008</v>
+      </c>
+      <c r="E20" s="2">
+        <f>IFERROR(Table1[[#This Row],[KO_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>0.28100000000000008</v>
+      </c>
+      <c r="F20" s="2">
+        <f>IFERROR(Table1[[#This Row],[TD_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <f>IFERROR(Table1[[#This Row],[KONF_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="H20" s="2">
+        <f>IFERROR(Table1[[#This Row],[LEW_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <f>IFERROR(Table1[[#This Row],[BS_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <f>IFERROR(Table1[[#This Row],[INNI_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="K20" s="2">
+        <f>IFERROR(Table1[[#This Row],[NIEZDECYDOWANI_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>7.9000000000000015E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="O20" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="S20" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45194</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="2">
+        <f>IFERROR(Table1[[#This Row],[PIS_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="E21" s="2">
+        <f>IFERROR(Table1[[#This Row],[KO_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="F21" s="2">
+        <f>IFERROR(Table1[[#This Row],[TD_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <f>IFERROR(Table1[[#This Row],[KONF_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>7.0000000000000021E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <f>IFERROR(Table1[[#This Row],[LEW_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="I21" s="2">
+        <f>IFERROR(Table1[[#This Row],[BS_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="J21" s="2">
+        <f>IFERROR(Table1[[#This Row],[INNI_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <f>IFERROR(Table1[[#This Row],[NIEZDECYDOWANI_SONDAZ]]/SUM(Table1[[#This Row],[PIS_SONDAZ]:[NIEZDECYDOWANI_SONDAZ]]),"ND")</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="O21" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
